--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_9_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_9_sine_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.77000000000028</v>
+        <v>23.63000000000025</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02228315937067238</v>
+        <v>0.0005937127017192623</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02228315937067238</v>
+        <v>0.0005937127017192623</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>35.03540743942859</v>
+        <v>40.00446661820627</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[5.5705890475122715, 64.5002258313449]</t>
+          <t>[15.483826838742843, 64.52510639766969]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.02084990097034645</v>
+        <v>0.001974741821843429</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02084990097034645</v>
+        <v>0.001974741821843429</v>
       </c>
       <c r="P2" t="n">
-        <v>1.654131867655887</v>
+        <v>1.150973885098963</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.4842895582110396, 2.8239741771007347]</t>
+          <t>[0.47171060864711656, 1.8302371615508104]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.006610651966977521</v>
+        <v>0.001369965683592156</v>
       </c>
       <c r="S2" t="n">
-        <v>0.006610651966977521</v>
+        <v>0.001369965683592156</v>
       </c>
       <c r="T2" t="n">
-        <v>48.97481860330688</v>
+        <v>63.63634727579967</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[31.729937498592406, 66.21969970802135]</t>
+          <t>[50.13207470340309, 77.14061984819625]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>8.116901542010169e-07</v>
+        <v>2.602140725116442e-12</v>
       </c>
       <c r="W2" t="n">
-        <v>8.116901542010169e-07</v>
+        <v>2.602140725116442e-12</v>
       </c>
       <c r="X2" t="n">
-        <v>17.51223223223244</v>
+        <v>19.30138138138159</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.08658658658674</v>
+        <v>16.74678678678697</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.93787787787813</v>
+        <v>21.85597597597621</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.77000000000028</v>
+        <v>23.63000000000025</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.871869052740617e-05</v>
+        <v>1.949625142982914e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>3.871869052740617e-05</v>
+        <v>1.949625142982914e-05</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>42.81483153909143</v>
+        <v>50.08368576029952</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[22.20046512595492, 63.42919795222794]</t>
+          <t>[25.765203416512122, 74.40216810408693]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0001312955822281303</v>
+        <v>0.000146709781816412</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0001312955822281303</v>
+        <v>0.000146709781816412</v>
       </c>
       <c r="P3" t="n">
-        <v>1.729605565039425</v>
+        <v>1.163552834662886</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.2012896833546547, 2.257921446724196]</t>
+          <t>[0.6226580034141929, 1.7044476659115784]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>4.088612026720284e-08</v>
+        <v>8.159274839791841e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>4.088612026720284e-08</v>
+        <v>8.159274839791841e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>62.29824873204993</v>
+        <v>56.78623985073335</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[50.32130894842244, 74.27518851567743]</t>
+          <t>[43.347214872581134, 70.22526482888556]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.185718190299667e-13</v>
+        <v>6.303668698137699e-11</v>
       </c>
       <c r="W3" t="n">
-        <v>1.185718190299667e-13</v>
+        <v>6.303668698137699e-11</v>
       </c>
       <c r="X3" t="n">
-        <v>17.22670670670691</v>
+        <v>19.25407407407429</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.2280280280282</v>
+        <v>17.21985985986005</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.22538538538561</v>
+        <v>21.28828828828852</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.77000000000028</v>
+        <v>23.63000000000025</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>8.758951473908372e-05</v>
+        <v>0.0019095733778145</v>
       </c>
       <c r="I4" t="n">
-        <v>8.758951473908372e-05</v>
+        <v>0.0019095733778145</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>49.86385392296577</v>
+        <v>37.24086796399508</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[23.98347675329086, 75.74423109264069]</t>
+          <t>[11.350469615988985, 63.13126631200117]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.0003375130932978809</v>
+        <v>0.005797800840361855</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0003375130932978809</v>
+        <v>0.005797800840361855</v>
       </c>
       <c r="P4" t="n">
-        <v>1.314500229429964</v>
+        <v>2.006342455445734</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.7736053981812709, 1.8553950606786564]</t>
+          <t>[1.2641844311742707, 2.7485004797171966]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.304964540382869e-05</v>
+        <v>2.064713407579077e-06</v>
       </c>
       <c r="S4" t="n">
-        <v>1.304964540382869e-05</v>
+        <v>2.064713407579077e-06</v>
       </c>
       <c r="T4" t="n">
-        <v>62.15668908870983</v>
+        <v>49.65087349391023</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[47.46216879648459, 76.85120938093507]</t>
+          <t>[35.765418302306614, 63.53632868551384]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>6.11979356079928e-11</v>
+        <v>5.118284684968444e-09</v>
       </c>
       <c r="W4" t="n">
-        <v>6.11979356079928e-11</v>
+        <v>5.118284684968444e-09</v>
       </c>
       <c r="X4" t="n">
-        <v>18.79709709709731</v>
+        <v>16.08448448448466</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.75083083083102</v>
+        <v>13.2933533533535</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.8433633633636</v>
+        <v>18.87561561561582</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.77000000000028</v>
+        <v>23.63000000000025</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.009837420702947908</v>
+        <v>0.0008021299153820882</v>
       </c>
       <c r="I5" t="n">
-        <v>0.009837420702947908</v>
+        <v>0.0008021299153820882</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>26.99627780442388</v>
+        <v>39.50255985554149</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[6.681897959989968, 47.3106576488578]</t>
+          <t>[14.636262894008638, 64.36885681707435]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.01033957632363403</v>
+        <v>0.002522949339124114</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01033957632363403</v>
+        <v>0.002522949339124114</v>
       </c>
       <c r="P5" t="n">
-        <v>1.717026615475502</v>
+        <v>1.956026657190042</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.6855527512338089, 2.7485004797171957]</t>
+          <t>[1.2641844311742725, 2.6478688832058106]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.001630147503647317</v>
+        <v>8.85456929777817e-07</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001630147503647317</v>
+        <v>8.85456929777817e-07</v>
       </c>
       <c r="T5" t="n">
-        <v>55.50804171754085</v>
+        <v>70.75992198709156</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[43.5678576406197, 67.44822579446199]</t>
+          <t>[57.11666682869338, 84.40317714548974]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.918421143112027e-12</v>
+        <v>1.303401830909934e-13</v>
       </c>
       <c r="W5" t="n">
-        <v>3.918421143112027e-12</v>
+        <v>1.303401830909934e-13</v>
       </c>
       <c r="X5" t="n">
-        <v>17.2742942942945</v>
+        <v>16.27371371371389</v>
       </c>
       <c r="Y5" t="n">
-        <v>13.37211211211227</v>
+        <v>13.67181181181196</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.17647647647672</v>
+        <v>18.87561561561581</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.77000000000028</v>
+        <v>23.63000000000025</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>4.99442259738192e-06</v>
+        <v>0.009338072926212471</v>
       </c>
       <c r="I6" t="n">
-        <v>4.99442259738192e-06</v>
+        <v>0.009338072926212471</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>53.85892587474462</v>
+        <v>38.97680370733997</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[27.979893954879884, 79.73795779460936]</t>
+          <t>[11.224914606551465, 66.72869280812847]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0001277964829498046</v>
+        <v>0.006954648815170827</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0001277964829498046</v>
+        <v>0.006954648815170827</v>
       </c>
       <c r="P6" t="n">
-        <v>2.434026740619119</v>
+        <v>1.66671081721981</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.9686056067539646, 2.8994478744842738]</t>
+          <t>[0.6478159025420398, 2.6856057318975806]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>9.969802761133906e-14</v>
+        <v>0.001926001307358982</v>
       </c>
       <c r="S6" t="n">
-        <v>9.969802761133906e-14</v>
+        <v>0.001926001307358982</v>
       </c>
       <c r="T6" t="n">
-        <v>62.81617347020189</v>
+        <v>62.00758669462707</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[49.344782222358475, 76.2875647180453]</t>
+          <t>[44.92463554683647, 79.09053784241766]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.577582674552104e-12</v>
+        <v>3.533975112546273e-09</v>
       </c>
       <c r="W6" t="n">
-        <v>3.577582674552104e-12</v>
+        <v>3.533975112546273e-09</v>
       </c>
       <c r="X6" t="n">
-        <v>14.56180180180197</v>
+        <v>17.36178178178197</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.80106106106121</v>
+        <v>13.52988988989004</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.32254254254273</v>
+        <v>21.1936736736739</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.77000000000028</v>
+        <v>23.63000000000025</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03389149360891563</v>
+        <v>0.001904091200344293</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03389149360891563</v>
+        <v>0.001904091200344293</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>30.27594969424977</v>
+        <v>42.38546941194052</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[1.944870273874642, 58.60702911462489]</t>
+          <t>[15.13923678075247, 69.63170204312857]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.03676852431774913</v>
+        <v>0.003039145272869526</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03676852431774913</v>
+        <v>0.003039145272869526</v>
       </c>
       <c r="P7" t="n">
-        <v>1.754763464167272</v>
+        <v>1.842816111114733</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.5220264069028087, 2.987500521431736]</t>
+          <t>[1.0629212381515023, 2.6227109840779645]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.006282982655448466</v>
+        <v>2.042131984247852e-05</v>
       </c>
       <c r="S7" t="n">
-        <v>0.006282982655448466</v>
+        <v>2.042131984247852e-05</v>
       </c>
       <c r="T7" t="n">
-        <v>74.2314882831183</v>
+        <v>65.08022410921416</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[58.36925903560456, 90.09371753063203]</t>
+          <t>[49.30785828838891, 80.85258993003941]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.209210674981477e-12</v>
+        <v>1.222504319997597e-10</v>
       </c>
       <c r="W7" t="n">
-        <v>3.209210674981477e-12</v>
+        <v>1.222504319997597e-10</v>
       </c>
       <c r="X7" t="n">
-        <v>17.13153153153173</v>
+        <v>16.69947947947966</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.46794794794809</v>
+        <v>13.76642642642658</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.79511511511537</v>
+        <v>19.63253253253274</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.77000000000028</v>
+        <v>23.63000000000025</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>9.717726414670835e-07</v>
+        <v>0.0009370381424760321</v>
       </c>
       <c r="I8" t="n">
-        <v>9.717726414670835e-07</v>
+        <v>0.0009370381424760321</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>57.65036250529064</v>
+        <v>35.65443238682776</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[34.7544388762706, 80.54628613431068]</t>
+          <t>[11.607211686352478, 59.701653087303036]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>7.250574542760901e-06</v>
+        <v>0.004556801460608551</v>
       </c>
       <c r="O8" t="n">
-        <v>7.250574542760901e-06</v>
+        <v>0.004556801460608551</v>
       </c>
       <c r="P8" t="n">
-        <v>1.792500312859041</v>
+        <v>2.182447749340657</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[1.3396581285578097, 2.245342497160273]</t>
+          <t>[1.515763422452732, 2.8491320762285817]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>3.780018520416206e-10</v>
+        <v>4.094951555622117e-08</v>
       </c>
       <c r="S8" t="n">
-        <v>3.780018520416206e-10</v>
+        <v>4.094951555622117e-08</v>
       </c>
       <c r="T8" t="n">
-        <v>69.600655125134</v>
+        <v>56.45263197720858</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[56.38727432707189, 82.8140359231961]</t>
+          <t>[43.93886703060309, 68.96639692381407]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>7.882583474838611e-14</v>
+        <v>9.580558568700326e-12</v>
       </c>
       <c r="W8" t="n">
-        <v>7.882583474838611e-14</v>
+        <v>9.580558568700326e-12</v>
       </c>
       <c r="X8" t="n">
-        <v>16.98876876876896</v>
+        <v>15.42218218218235</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.27561561561579</v>
+        <v>12.91489489489503</v>
       </c>
       <c r="Z8" t="n">
-        <v>18.70192192192214</v>
+        <v>17.92946946946967</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.77000000000028</v>
+        <v>23.63000000000025</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02353940460431769</v>
+        <v>7.214132849320265e-06</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02353940460431769</v>
+        <v>7.214132849320265e-06</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>31.97734541728033</v>
+        <v>58.05715937802492</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[2.488789441183279, 61.46590139337738]</t>
+          <t>[31.360638707300936, 84.7536800487489]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.03420751754000739</v>
+        <v>7.0082230603008e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>0.03420751754000739</v>
+        <v>7.0082230603008e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>1.968605606753965</v>
+        <v>2.03150035457358</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.6478159025420398, 3.2893953109658893]</t>
+          <t>[1.553500271144502, 2.5095004380026573]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.004365976741686595</v>
+        <v>5.355205168200428e-11</v>
       </c>
       <c r="S9" t="n">
-        <v>0.004365976741686595</v>
+        <v>5.355205168200428e-11</v>
       </c>
       <c r="T9" t="n">
-        <v>59.73419536684601</v>
+        <v>68.13070013294325</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[43.859318412024166, 75.60907232166785]</t>
+          <t>[53.38989578389733, 82.87150448198916]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.424366180557968e-09</v>
+        <v>4.664491015660133e-12</v>
       </c>
       <c r="W9" t="n">
-        <v>1.424366180557968e-09</v>
+        <v>4.664491015660133e-12</v>
       </c>
       <c r="X9" t="n">
-        <v>16.32254254254273</v>
+        <v>15.98986986987004</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.32584584584598</v>
+        <v>14.19219219219234</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.31923923923949</v>
+        <v>17.78754754754774</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.77000000000028</v>
+        <v>23.63000000000025</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0006510920949002186</v>
+        <v>0.003607841918666921</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0006510920949002186</v>
+        <v>0.003607841918666921</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>37.07057073044599</v>
+        <v>41.81680708990871</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[12.184825215131532, 61.95631624576044]</t>
+          <t>[12.456980525391842, 71.17663365442557]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.004386314358100218</v>
+        <v>0.006255487334577259</v>
       </c>
       <c r="O10" t="n">
-        <v>0.004386314358100218</v>
+        <v>0.006255487334577259</v>
       </c>
       <c r="P10" t="n">
-        <v>2.169868799776734</v>
+        <v>1.86797401024258</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.5283423720166551, 2.8113952275368126]</t>
+          <t>[1.0755001877154244, 2.6604478327697363]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.934630033950668e-08</v>
+        <v>2.121576289471072e-05</v>
       </c>
       <c r="S10" t="n">
-        <v>1.934630033950668e-08</v>
+        <v>2.121576289471072e-05</v>
       </c>
       <c r="T10" t="n">
-        <v>53.40014185229013</v>
+        <v>67.13583366543352</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[40.75369944469655, 66.04658425988372]</t>
+          <t>[50.59416844634006, 83.67749888452698]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>6.427791632290791e-11</v>
+        <v>1.923965431416264e-10</v>
       </c>
       <c r="W10" t="n">
-        <v>6.427791632290791e-11</v>
+        <v>1.923965431416264e-10</v>
       </c>
       <c r="X10" t="n">
-        <v>15.56114114114132</v>
+        <v>16.60486486486504</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.13417417417432</v>
+        <v>13.62450450450465</v>
       </c>
       <c r="Z10" t="n">
-        <v>17.98810810810832</v>
+        <v>19.58522522522544</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.43000000000022</v>
+        <v>24.08000000000033</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0004280274134761397</v>
+        <v>0.001650856289021396</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0004280274134761397</v>
+        <v>0.001650856289021396</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>46.49614897493606</v>
+        <v>34.65303227317883</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[21.96666869820288, 71.02562925166924]</t>
+          <t>[10.197267223805632, 59.10879732255203]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.0004091596516109242</v>
+        <v>0.006505771481017497</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0004091596516109242</v>
+        <v>0.006505771481017497</v>
       </c>
       <c r="P11" t="n">
-        <v>1.66671081721981</v>
+        <v>2.232763547596349</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.9874475407679641, 2.345974093671656]</t>
+          <t>[1.566079220708425, 2.899447874484273]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>1.115556857467226e-05</v>
+        <v>2.433559176395761e-08</v>
       </c>
       <c r="S11" t="n">
-        <v>1.115556857467226e-05</v>
+        <v>2.433559176395761e-08</v>
       </c>
       <c r="T11" t="n">
-        <v>59.48793724825324</v>
+        <v>50.53991019096253</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[44.29186607635339, 74.68400842015309]</t>
+          <t>[37.7149661098042, 63.36485427212086]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>5.077336329151194e-10</v>
+        <v>4.256837105032218e-10</v>
       </c>
       <c r="W11" t="n">
-        <v>5.077336329151194e-10</v>
+        <v>4.256837105032218e-10</v>
       </c>
       <c r="X11" t="n">
-        <v>17.214834834835</v>
+        <v>15.52304304304325</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.68186186186201</v>
+        <v>12.96800800800819</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.74780780780799</v>
+        <v>18.07807807807832</v>
       </c>
     </row>
     <row r="12">
@@ -1425,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.43000000000022</v>
+        <v>24.08000000000033</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.09715540850234838</v>
+        <v>4.332876316703871e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09715540850234838</v>
+        <v>4.332876316703871e-05</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>21.75506204597911</v>
+        <v>48.28464312305041</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-2.5533191713811263, 46.06344326333934]</t>
+          <t>[21.976595271173792, 74.59269097492702]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.07815949356725405</v>
+        <v>0.0005910072927881593</v>
       </c>
       <c r="O12" t="n">
-        <v>0.07815949356725405</v>
+        <v>0.0005910072927881593</v>
       </c>
       <c r="P12" t="n">
-        <v>1.654131867655887</v>
+        <v>2.396289891927349</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.11950002085726918, 3.188763714454505]</t>
+          <t>[1.8931319093704246, 2.8994478744842738]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.03524946931285711</v>
+        <v>1.885158695813516e-12</v>
       </c>
       <c r="S12" t="n">
-        <v>0.03524946931285711</v>
+        <v>1.885158695813516e-12</v>
       </c>
       <c r="T12" t="n">
-        <v>60.54818515640436</v>
+        <v>60.11912604889449</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[46.727108206144734, 74.36926210666398]</t>
+          <t>[46.46412149591835, 73.77413060187062]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2.25315321955577e-11</v>
+        <v>1.951172556857728e-11</v>
       </c>
       <c r="W12" t="n">
-        <v>2.25315321955577e-11</v>
+        <v>1.951172556857728e-11</v>
       </c>
       <c r="X12" t="n">
-        <v>17.26174174174191</v>
+        <v>14.89633633633654</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.53909909909921</v>
+        <v>12.96800800800818</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.9843843843846</v>
+        <v>16.8246646646649</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.43000000000022</v>
+        <v>24.08000000000033</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0005429731028416818</v>
+        <v>0.001103041852135833</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0005429731028416818</v>
+        <v>0.001103041852135833</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>40.65124742603848</v>
+        <v>43.35688085424794</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[14.693930490534612, 66.60856436154235]</t>
+          <t>[14.025451859982326, 72.68830984851355]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.002865777963821037</v>
+        <v>0.004670856531870493</v>
       </c>
       <c r="O13" t="n">
-        <v>0.002865777963821037</v>
+        <v>0.004670856531870493</v>
       </c>
       <c r="P13" t="n">
-        <v>2.031500354573581</v>
+        <v>2.03150035457358</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.3648160276856576, 2.6981846814615036]</t>
+          <t>[1.3270791789938867, 2.7359215301532727]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>1.952181813980047e-07</v>
+        <v>6.003055181835748e-07</v>
       </c>
       <c r="S13" t="n">
-        <v>1.952181813980047e-07</v>
+        <v>6.003055181835748e-07</v>
       </c>
       <c r="T13" t="n">
-        <v>69.67024783487265</v>
+        <v>62.09111257003961</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[56.05890412618078, 83.28159154356453]</t>
+          <t>[46.606507322561484, 77.57571781751774]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.98507876802978e-13</v>
+        <v>2.670292875706082e-10</v>
       </c>
       <c r="W13" t="n">
-        <v>1.98507876802978e-13</v>
+        <v>2.670292875706082e-10</v>
       </c>
       <c r="X13" t="n">
-        <v>15.85453453453468</v>
+        <v>16.29437437437459</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.3684684684686</v>
+        <v>13.5947147147149</v>
       </c>
       <c r="Z13" t="n">
-        <v>18.34060060060077</v>
+        <v>18.99403403403429</v>
       </c>
     </row>
     <row r="14">
@@ -1597,7 +1597,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.43000000000022</v>
+        <v>24.08000000000033</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01064594949657116</v>
+        <v>0.036532143778503</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01064594949657116</v>
+        <v>0.036532143778503</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>33.83778142954074</v>
+        <v>27.72367581638446</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[5.51748762319324, 62.15807523588824]</t>
+          <t>[-0.9260649439240822, 56.37341657669301]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.02027354229073319</v>
+        <v>0.05754567945071698</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02027354229073319</v>
+        <v>0.05754567945071698</v>
       </c>
       <c r="P14" t="n">
-        <v>2.144710900648888</v>
+        <v>2.383710942363427</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.2516054816103486, 3.037816319687427]</t>
+          <t>[0.421394810391424, 4.34602707433543]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>1.581337699740892e-05</v>
+        <v>0.01839121727147575</v>
       </c>
       <c r="S14" t="n">
-        <v>1.581337699740892e-05</v>
+        <v>0.01839121727147575</v>
       </c>
       <c r="T14" t="n">
-        <v>59.81412596549359</v>
+        <v>58.91722120609735</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[44.701098518887065, 74.92715341210011]</t>
+          <t>[44.138173012564536, 73.69626939963017]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>3.794020653202779e-10</v>
+        <v>3.124855929570458e-10</v>
       </c>
       <c r="W14" t="n">
-        <v>3.794020653202779e-10</v>
+        <v>3.124855929570458e-10</v>
       </c>
       <c r="X14" t="n">
-        <v>15.43237237237252</v>
+        <v>14.94454454454475</v>
       </c>
       <c r="Y14" t="n">
-        <v>12.1019819819821</v>
+        <v>7.424064064064165</v>
       </c>
       <c r="Z14" t="n">
-        <v>18.76276276276294</v>
+        <v>22.46502502502533</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_9_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_9_sine_0.1_.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.63000000000025</v>
+        <v>23.75000000000027</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0005937127017192623</v>
+        <v>0.2027131726546688</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0005937127017192623</v>
+        <v>0.2027131726546688</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>40.00446661820627</v>
+        <v>15.80006230514343</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[15.483826838742843, 64.52510639766969]</t>
+          <t>[-5.577033841316798, 37.17715845160367]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.001974741821843429</v>
+        <v>0.1435554172512008</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001974741821843429</v>
+        <v>0.1435554172512008</v>
       </c>
       <c r="P2" t="n">
-        <v>1.150973885098963</v>
+        <v>1.666710817219811</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.47171060864711656, 1.8302371615508104]</t>
+          <t>[-1.3899739268135, 4.723395561253122]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.001369965683592156</v>
+        <v>0.2779477386194256</v>
       </c>
       <c r="S2" t="n">
-        <v>0.001369965683592156</v>
+        <v>0.2779477386194256</v>
       </c>
       <c r="T2" t="n">
-        <v>63.63634727579967</v>
+        <v>58.80304813161947</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[50.13207470340309, 77.14061984819625]</t>
+          <t>[46.501141929398145, 71.1049543338408]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.602140725116442e-12</v>
+        <v>1.685318551380988e-12</v>
       </c>
       <c r="W2" t="n">
-        <v>2.602140725116442e-12</v>
+        <v>1.685318551380988e-12</v>
       </c>
       <c r="X2" t="n">
-        <v>19.30138138138159</v>
+        <v>17.44994994995015</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.74678678678697</v>
+        <v>5.895895895895967</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.85597597597621</v>
+        <v>29.00400400400433</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.63000000000025</v>
+        <v>23.75000000000027</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.949625142982914e-05</v>
+        <v>0.003951895413803586</v>
       </c>
       <c r="I3" t="n">
-        <v>1.949625142982914e-05</v>
+        <v>0.003951895413803586</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>50.08368576029952</v>
+        <v>38.35825467164082</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[25.765203416512122, 74.40216810408693]</t>
+          <t>[12.710810445666823, 64.00569889761482]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.000146709781816412</v>
+        <v>0.004244661078185441</v>
       </c>
       <c r="O3" t="n">
-        <v>0.000146709781816412</v>
+        <v>0.004244661078185441</v>
       </c>
       <c r="P3" t="n">
-        <v>1.163552834662886</v>
+        <v>1.754763464167272</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.6226580034141929, 1.7044476659115784]</t>
+          <t>[0.861658045128733, 2.6478688832058115]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>8.159274839791841e-05</v>
+        <v>0.000266353288611576</v>
       </c>
       <c r="S3" t="n">
-        <v>8.159274839791841e-05</v>
+        <v>0.000266353288611576</v>
       </c>
       <c r="T3" t="n">
-        <v>56.78623985073335</v>
+        <v>58.705985605741</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[43.347214872581134, 70.22526482888556]</t>
+          <t>[43.37338826438325, 74.03858294709875]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>6.303668698137699e-11</v>
+        <v>9.088898522691125e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>6.303668698137699e-11</v>
+        <v>9.088898522691125e-10</v>
       </c>
       <c r="X3" t="n">
-        <v>19.25407407407429</v>
+        <v>17.11711711711731</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.21985985986005</v>
+        <v>13.7412412412414</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.28828828828852</v>
+        <v>20.49299299299323</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.63000000000025</v>
+        <v>23.75000000000027</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0019095733778145</v>
+        <v>6.7538764497721e-06</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0019095733778145</v>
+        <v>6.7538764497721e-06</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>37.24086796399508</v>
+        <v>56.41689822588737</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[11.350469615988985, 63.13126631200117]</t>
+          <t>[33.880096427896035, 78.95370002387871]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.005797800840361855</v>
+        <v>7.998776336615165e-06</v>
       </c>
       <c r="O4" t="n">
-        <v>0.005797800840361855</v>
+        <v>7.998776336615165e-06</v>
       </c>
       <c r="P4" t="n">
-        <v>2.006342455445734</v>
+        <v>1.54092132158058</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.2641844311742707, 2.7485004797171966]</t>
+          <t>[1.0503422885875784, 2.0315003545735815]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.064713407579077e-06</v>
+        <v>1.021943314416518e-07</v>
       </c>
       <c r="S4" t="n">
-        <v>2.064713407579077e-06</v>
+        <v>1.021943314416518e-07</v>
       </c>
       <c r="T4" t="n">
-        <v>49.65087349391023</v>
+        <v>62.8189065516988</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[35.765418302306614, 63.53632868551384]</t>
+          <t>[48.55784334012091, 77.07996976327668]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>5.118284684968444e-09</v>
+        <v>1.923061709874219e-11</v>
       </c>
       <c r="W4" t="n">
-        <v>5.118284684968444e-09</v>
+        <v>1.923061709874219e-11</v>
       </c>
       <c r="X4" t="n">
-        <v>16.08448448448466</v>
+        <v>17.92542542542563</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.2933533533535</v>
+        <v>16.07107107107125</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.87561561561582</v>
+        <v>19.77977977978001</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.63000000000025</v>
+        <v>23.75000000000027</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008021299153820882</v>
+        <v>1.493812782582538e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0008021299153820882</v>
+        <v>1.493812782582538e-05</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>39.50255985554149</v>
+        <v>46.13677001027104</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[14.636262894008638, 64.36885681707435]</t>
+          <t>[25.097469194855393, 67.1760708256867]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.002522949339124114</v>
+        <v>6.229718145323027e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002522949339124114</v>
+        <v>6.229718145323027e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>1.956026657190042</v>
+        <v>1.742184514603348</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.2641844311742725, 2.6478688832058106]</t>
+          <t>[1.2390265320464238, 2.245342497160273]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>8.85456929777817e-07</v>
+        <v>1.114232839327656e-08</v>
       </c>
       <c r="S5" t="n">
-        <v>8.85456929777817e-07</v>
+        <v>1.114232839327656e-08</v>
       </c>
       <c r="T5" t="n">
-        <v>70.75992198709156</v>
+        <v>62.25582551906545</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[57.11666682869338, 84.40317714548974]</t>
+          <t>[50.07265782325713, 74.43899321487376]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.303401830909934e-13</v>
+        <v>2.093880624443045e-13</v>
       </c>
       <c r="W5" t="n">
-        <v>1.303401830909934e-13</v>
+        <v>2.093880624443045e-13</v>
       </c>
       <c r="X5" t="n">
-        <v>16.27371371371389</v>
+        <v>17.16466466466486</v>
       </c>
       <c r="Y5" t="n">
-        <v>13.67181181181196</v>
+        <v>15.26276276276294</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.87561561561581</v>
+        <v>19.06656656656679</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.63000000000025</v>
+        <v>23.75000000000027</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.009338072926212471</v>
+        <v>0.0003841908132919958</v>
       </c>
       <c r="I6" t="n">
-        <v>0.009338072926212471</v>
+        <v>0.0003841908132919958</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>38.97680370733997</v>
+        <v>42.16659528196674</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[11.224914606551465, 66.72869280812847]</t>
+          <t>[19.2899736674093, 65.04321689652419]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.006954648815170827</v>
+        <v>0.0005634414606459082</v>
       </c>
       <c r="O6" t="n">
-        <v>0.006954648815170827</v>
+        <v>0.0005634414606459082</v>
       </c>
       <c r="P6" t="n">
-        <v>1.66671081721981</v>
+        <v>1.490605523324888</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.6478159025420398, 2.6856057318975806]</t>
+          <t>[0.823921196436963, 2.1572898502128126]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.001926001307358982</v>
+        <v>4.710461111701036e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>0.001926001307358982</v>
+        <v>4.710461111701036e-05</v>
       </c>
       <c r="T6" t="n">
-        <v>62.00758669462707</v>
+        <v>61.74033714554012</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[44.92463554683647, 79.09053784241766]</t>
+          <t>[47.97312638921784, 75.50754790186241]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.533975112546273e-09</v>
+        <v>1.140354477513483e-11</v>
       </c>
       <c r="W6" t="n">
-        <v>3.533975112546273e-09</v>
+        <v>1.140354477513483e-11</v>
       </c>
       <c r="X6" t="n">
-        <v>17.36178178178197</v>
+        <v>18.11561561561582</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.52988988989004</v>
+        <v>15.59559559559577</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.1936736736739</v>
+        <v>20.63563563563587</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.63000000000025</v>
+        <v>23.75000000000027</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001904091200344293</v>
+        <v>2.100651554703958e-06</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001904091200344293</v>
+        <v>2.100651554703958e-06</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>42.38546941194052</v>
+        <v>55.83969151262194</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[15.13923678075247, 69.63170204312857]</t>
+          <t>[31.894875791770588, 79.78450723347329]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.003039145272869526</v>
+        <v>2.505150578246962e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>0.003039145272869526</v>
+        <v>2.505150578246962e-05</v>
       </c>
       <c r="P7" t="n">
         <v>1.842816111114733</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1.0629212381515023, 2.6227109840779645]</t>
+          <t>[1.3773949772495788, 2.308237244979888]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.042131984247852e-05</v>
+        <v>3.751379207272976e-10</v>
       </c>
       <c r="S7" t="n">
-        <v>2.042131984247852e-05</v>
+        <v>3.751379207272976e-10</v>
       </c>
       <c r="T7" t="n">
-        <v>65.08022410921416</v>
+        <v>59.89000380754448</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[49.30785828838891, 80.85258993003941]</t>
+          <t>[46.59579931458828, 73.18420830050069]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.222504319997597e-10</v>
+        <v>9.981349080590007e-12</v>
       </c>
       <c r="W7" t="n">
-        <v>1.222504319997597e-10</v>
+        <v>9.981349080590007e-12</v>
       </c>
       <c r="X7" t="n">
-        <v>16.69947947947966</v>
+        <v>16.78428428428448</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.76642642642658</v>
+        <v>15.0250250250252</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.63253253253274</v>
+        <v>18.54354354354376</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.63000000000025</v>
+        <v>23.75000000000027</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0009370381424760321</v>
+        <v>1.790408224155993e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0009370381424760321</v>
+        <v>1.790408224155993e-05</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>35.65443238682776</v>
+        <v>50.35511427045943</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[11.607211686352478, 59.701653087303036]</t>
+          <t>[28.984916007497773, 71.72531253342109]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.004556801460608551</v>
+        <v>2.13311140555561e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>0.004556801460608551</v>
+        <v>2.13311140555561e-05</v>
       </c>
       <c r="P8" t="n">
-        <v>2.182447749340657</v>
+        <v>1.553500271144503</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[1.515763422452732, 2.8491320762285817]</t>
+          <t>[1.0126054398958084, 2.0943951023931975]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>4.094951555622117e-08</v>
+        <v>6.511208889836695e-07</v>
       </c>
       <c r="S8" t="n">
-        <v>4.094951555622117e-08</v>
+        <v>6.511208889836695e-07</v>
       </c>
       <c r="T8" t="n">
-        <v>56.45263197720858</v>
+        <v>64.55413670672158</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[43.93886703060309, 68.96639692381407]</t>
+          <t>[51.12773448298137, 77.98053893046179]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>9.580558568700326e-12</v>
+        <v>1.409095062854249e-12</v>
       </c>
       <c r="W8" t="n">
-        <v>9.580558568700326e-12</v>
+        <v>1.409095062854249e-12</v>
       </c>
       <c r="X8" t="n">
-        <v>15.42218218218235</v>
+        <v>17.87787787787808</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.91489489489503</v>
+        <v>15.83333333333351</v>
       </c>
       <c r="Z8" t="n">
-        <v>17.92946946946967</v>
+        <v>19.92242242242266</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.63000000000025</v>
+        <v>23.75000000000027</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>7.214132849320265e-06</v>
+        <v>1.824072287570644e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>7.214132849320265e-06</v>
+        <v>1.824072287570644e-05</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>58.05715937802492</v>
+        <v>60.84478903239705</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[31.360638707300936, 84.7536800487489]</t>
+          <t>[28.45520479897248, 93.23437326582163]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>7.0082230603008e-05</v>
+        <v>0.000454163284910214</v>
       </c>
       <c r="O9" t="n">
-        <v>7.0082230603008e-05</v>
+        <v>0.000454163284910214</v>
       </c>
       <c r="P9" t="n">
-        <v>2.03150035457358</v>
+        <v>2.333395144107735</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1.553500271144502, 2.5095004380026573]</t>
+          <t>[1.8428161111147339, 2.823974177100735]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>5.355205168200428e-11</v>
+        <v>1.960209772278176e-12</v>
       </c>
       <c r="S9" t="n">
-        <v>5.355205168200428e-11</v>
+        <v>1.960209772278176e-12</v>
       </c>
       <c r="T9" t="n">
-        <v>68.13070013294325</v>
+        <v>59.83741706847021</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[53.38989578389733, 82.87150448198916]</t>
+          <t>[43.50231439228634, 76.17251974465408]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4.664491015660133e-12</v>
+        <v>2.813308697113825e-09</v>
       </c>
       <c r="W9" t="n">
-        <v>4.664491015660133e-12</v>
+        <v>2.813308697113825e-09</v>
       </c>
       <c r="X9" t="n">
-        <v>15.98986986987004</v>
+        <v>14.9299299299301</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.19219219219234</v>
+        <v>13.07557557557572</v>
       </c>
       <c r="Z9" t="n">
-        <v>17.78754754754774</v>
+        <v>16.78428428428447</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.63000000000025</v>
+        <v>23.75000000000027</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.003607841918666921</v>
+        <v>8.943834119101712e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003607841918666921</v>
+        <v>8.943834119101712e-05</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>41.81680708990871</v>
+        <v>46.39058068104865</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[12.456980525391842, 71.17663365442557]</t>
+          <t>[21.413607411550544, 71.36755395054676]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.006255487334577259</v>
+        <v>0.0005170184025664604</v>
       </c>
       <c r="O10" t="n">
-        <v>0.006255487334577259</v>
+        <v>0.0005170184025664604</v>
       </c>
       <c r="P10" t="n">
-        <v>1.86797401024258</v>
+        <v>1.968605606753964</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.0755001877154244, 2.6604478327697363]</t>
+          <t>[1.377394977249577, 2.5598162362583503]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.121576289471072e-05</v>
+        <v>2.779256624840798e-08</v>
       </c>
       <c r="S10" t="n">
-        <v>2.121576289471072e-05</v>
+        <v>2.779256624840798e-08</v>
       </c>
       <c r="T10" t="n">
-        <v>67.13583366543352</v>
+        <v>57.44585089911385</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[50.59416844634006, 83.67749888452698]</t>
+          <t>[43.76084997643164, 71.13085182179606]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.923965431416264e-10</v>
+        <v>7.583067507255237e-11</v>
       </c>
       <c r="W10" t="n">
-        <v>1.923965431416264e-10</v>
+        <v>7.583067507255237e-11</v>
       </c>
       <c r="X10" t="n">
-        <v>16.60486486486504</v>
+        <v>16.308808808809</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.62450450450465</v>
+        <v>14.07407407407424</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.58522522522544</v>
+        <v>18.54354354354377</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.08000000000033</v>
+        <v>23.9400000000003</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001650856289021396</v>
+        <v>6.658851940188892e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001650856289021396</v>
+        <v>6.658851940188892e-05</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>34.65303227317883</v>
+        <v>55.18840976573393</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[10.197267223805632, 59.10879732255203]</t>
+          <t>[25.535543932055432, 84.84127559941243]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.006505771481017497</v>
+        <v>0.0005051175475176972</v>
       </c>
       <c r="O11" t="n">
-        <v>0.006505771481017497</v>
+        <v>0.0005051175475176972</v>
       </c>
       <c r="P11" t="n">
-        <v>2.232763547596349</v>
+        <v>1.993763505881811</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.566079220708425, 2.899447874484273]</t>
+          <t>[1.427710775505271, 2.5598162362583503]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.433559176395761e-08</v>
+        <v>7.390661860284808e-09</v>
       </c>
       <c r="S11" t="n">
-        <v>2.433559176395761e-08</v>
+        <v>7.390661860284808e-09</v>
       </c>
       <c r="T11" t="n">
-        <v>50.53991019096253</v>
+        <v>70.15296014154775</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[37.7149661098042, 63.36485427212086]</t>
+          <t>[54.133387468806546, 86.17253281428896]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>4.256837105032218e-10</v>
+        <v>2.277844579623434e-11</v>
       </c>
       <c r="W11" t="n">
-        <v>4.256837105032218e-10</v>
+        <v>2.277844579623434e-11</v>
       </c>
       <c r="X11" t="n">
-        <v>15.52304304304325</v>
+        <v>16.34342342342363</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.96800800800819</v>
+        <v>14.18666666666685</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.07807807807832</v>
+        <v>18.50018018018041</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.08000000000033</v>
+        <v>23.9400000000003</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>4.332876316703871e-05</v>
+        <v>0.0001162383838333447</v>
       </c>
       <c r="I12" t="n">
-        <v>4.332876316703871e-05</v>
+        <v>0.0001162383838333447</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>48.28464312305041</v>
+        <v>47.61063711934676</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[21.976595271173792, 74.59269097492702]</t>
+          <t>[22.109704081013447, 73.11157015768008]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.0005910072927881593</v>
+        <v>0.0004873326302941017</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0005910072927881593</v>
+        <v>0.0004873326302941017</v>
       </c>
       <c r="P12" t="n">
-        <v>2.396289891927349</v>
+        <v>1.930868758062195</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.8931319093704246, 2.8994478744842738]</t>
+          <t>[1.314500229429962, 2.5472372866944273]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.885158695813516e-12</v>
+        <v>1.082707248301062e-07</v>
       </c>
       <c r="S12" t="n">
-        <v>1.885158695813516e-12</v>
+        <v>1.082707248301062e-07</v>
       </c>
       <c r="T12" t="n">
-        <v>60.11912604889449</v>
+        <v>52.86820409695063</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[46.46412149591835, 73.77413060187062]</t>
+          <t>[38.532474330337195, 67.20393386356406]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.951172556857728e-11</v>
+        <v>2.37546182724202e-09</v>
       </c>
       <c r="W12" t="n">
-        <v>1.951172556857728e-11</v>
+        <v>2.37546182724202e-09</v>
       </c>
       <c r="X12" t="n">
-        <v>14.89633633633654</v>
+        <v>16.58306306306327</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.96800800800818</v>
+        <v>14.23459459459477</v>
       </c>
       <c r="Z12" t="n">
-        <v>16.8246646646649</v>
+        <v>18.93153153153178</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.08000000000033</v>
+        <v>23.9400000000003</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001103041852135833</v>
+        <v>0.001010640249702766</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001103041852135833</v>
+        <v>0.001010640249702766</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>43.35688085424794</v>
+        <v>37.48627203618554</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[14.025451859982326, 72.68830984851355]</t>
+          <t>[11.753137326695864, 63.219406745675215]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.004670856531870493</v>
+        <v>0.005250141101430517</v>
       </c>
       <c r="O13" t="n">
-        <v>0.004670856531870493</v>
+        <v>0.005250141101430517</v>
       </c>
       <c r="P13" t="n">
-        <v>2.03150035457358</v>
+        <v>2.056658253701426</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.3270791789938867, 2.7359215301532727]</t>
+          <t>[1.389973926813501, 2.7233425805893505]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>6.003055181835748e-07</v>
+        <v>1.504992173106956e-07</v>
       </c>
       <c r="S13" t="n">
-        <v>6.003055181835748e-07</v>
+        <v>1.504992173106956e-07</v>
       </c>
       <c r="T13" t="n">
-        <v>62.09111257003961</v>
+        <v>39.4968797349267</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[46.606507322561484, 77.57571781751774]</t>
+          <t>[26.238001455058246, 52.755758014795155]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.670292875706082e-10</v>
+        <v>3.124369394313931e-07</v>
       </c>
       <c r="W13" t="n">
-        <v>2.670292875706082e-10</v>
+        <v>3.124369394313931e-07</v>
       </c>
       <c r="X13" t="n">
-        <v>16.29437437437459</v>
+        <v>16.10378378378399</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.5947147147149</v>
+        <v>13.56360360360377</v>
       </c>
       <c r="Z13" t="n">
-        <v>18.99403403403429</v>
+        <v>18.6439639639642</v>
       </c>
     </row>
     <row r="14">
@@ -1597,7 +1597,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.08000000000033</v>
+        <v>23.9400000000003</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.036532143778503</v>
+        <v>0.0007413633685853238</v>
       </c>
       <c r="I14" t="n">
-        <v>0.036532143778503</v>
+        <v>0.0007413633685853238</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>27.72367581638446</v>
+        <v>45.66666022615572</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-0.9260649439240822, 56.37341657669301]</t>
+          <t>[16.438338216190928, 74.89498223612051]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.05754567945071698</v>
+        <v>0.002925644451805098</v>
       </c>
       <c r="O14" t="n">
-        <v>0.05754567945071698</v>
+        <v>0.002925644451805098</v>
       </c>
       <c r="P14" t="n">
-        <v>2.383710942363427</v>
+        <v>1.993763505881811</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0.421394810391424, 4.34602707433543]</t>
+          <t>[1.3019212798660398, 2.6856057318975814]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.01839121727147575</v>
+        <v>6.090679531833842e-07</v>
       </c>
       <c r="S14" t="n">
-        <v>0.01839121727147575</v>
+        <v>6.090679531833842e-07</v>
       </c>
       <c r="T14" t="n">
-        <v>58.91722120609735</v>
+        <v>59.87372409871823</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[44.138173012564536, 73.69626939963017]</t>
+          <t>[44.11338032043295, 75.63406787700352]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>3.124855929570458e-10</v>
+        <v>1.113217074077966e-09</v>
       </c>
       <c r="W14" t="n">
-        <v>3.124855929570458e-10</v>
+        <v>1.113217074077966e-09</v>
       </c>
       <c r="X14" t="n">
-        <v>14.94454454454475</v>
+        <v>16.34342342342363</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.424064064064165</v>
+        <v>13.70738738738756</v>
       </c>
       <c r="Z14" t="n">
-        <v>22.46502502502533</v>
+        <v>18.9794594594597</v>
       </c>
     </row>
   </sheetData>
